--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\Solverminds_VSS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solvermind_newframework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\Solverminds_VSS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Sno</t>
   </si>
@@ -56,23 +56,74 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Testcase1</t>
-  </si>
-  <si>
     <t>https://lrpv2atesting.solverminds.net/main</t>
   </si>
   <si>
     <t>Solverminds</t>
   </si>
   <si>
-    <t>Service_Creation</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>contractregistration</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>TC_EMS_Contract_Registration_TS001</t>
+  </si>
+  <si>
+    <t>contractregistration02</t>
+  </si>
+  <si>
+    <t>TC_EMS_Contract_Registration_TS002</t>
+  </si>
+  <si>
+    <t>contractregistration03</t>
+  </si>
+  <si>
+    <t>TC_EMS_Contract_Registration_TS003</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Proformacreation01</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC01</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC02</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Proformacreation02</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,12 +146,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -151,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -165,10 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -486,24 +527,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="56.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,35 +567,127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
       <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\Solverminds_VSS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitPush\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA8B99F-330D-4B23-9A52-7AB475C23182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Sno</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Testcase1</t>
-  </si>
-  <si>
     <t>https://lrpv2atesting.solverminds.net/main</t>
   </si>
   <si>
@@ -66,12 +64,51 @@
   </si>
   <si>
     <t>Service_Creation</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC02</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC03</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC04</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -161,9 +198,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -485,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +532,7 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -531,30 +565,122 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\Solverminds_VSS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Sno</t>
   </si>
@@ -56,16 +56,43 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Testcase1</t>
-  </si>
-  <si>
-    <t>https://lrpv2atesting.solverminds.net/main</t>
-  </si>
-  <si>
     <t>Solverminds</t>
   </si>
   <si>
-    <t>Service_Creation</t>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>https://lrpv2atesting.solverminds.net/index</t>
+  </si>
+  <si>
+    <t>Search_input</t>
+  </si>
+  <si>
+    <t>TC_Booking_SC01_SC02</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>TC_Booking_SC023_SC04</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Proforma creation</t>
+  </si>
+  <si>
+    <t>Proforma_Service_Creation_PC05</t>
+  </si>
+  <si>
+    <t>Proforma_Service_Creation_PC07</t>
+  </si>
+  <si>
+    <t>Proforma_Service_Creation_PC08</t>
   </si>
 </sst>
 </file>
@@ -151,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -170,7 +197,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,24 +519,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="56.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,39 +560,150 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="39" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\Solverminds_VSS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sno</t>
   </si>
@@ -56,74 +56,23 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Testcase1</t>
+  </si>
+  <si>
     <t>https://lrpv2atesting.solverminds.net/main</t>
   </si>
   <si>
     <t>Solverminds</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>contractregistration</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>TC_EMS_Contract_Registration_TS001</t>
-  </si>
-  <si>
-    <t>contractregistration02</t>
-  </si>
-  <si>
-    <t>TC_EMS_Contract_Registration_TS002</t>
-  </si>
-  <si>
-    <t>contractregistration03</t>
-  </si>
-  <si>
-    <t>TC_EMS_Contract_Registration_TS003</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Proformacreation01</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>TC_Proforma_Service_Creation_PC01</t>
-  </si>
-  <si>
-    <t>TC_Proforma_Service_Creation_PC02</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Proformacreation02</t>
-  </si>
-  <si>
-    <t>05</t>
+    <t>Service_Creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +95,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -196,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -210,6 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -527,24 +486,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
-    <col min="7" max="7" width="56.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,127 +526,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Sno</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Proformacreation03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC03</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Proformacreation04</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC04</t>
   </si>
 </sst>
 </file>
@@ -527,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,18 +700,64 @@
         <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
       <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\Solverminds_VSS\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Sno</t>
   </si>
@@ -56,23 +51,152 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>https://lrpv2atesting.solverminds.net/main</t>
+  </si>
+  <si>
+    <t>Solverminds</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Proformacreation01</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC01</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC02</t>
+  </si>
+  <si>
+    <t>Proformacreation02</t>
+  </si>
+  <si>
+    <t>Proformacreation04</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC04</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>TC_Booking_SC01_SC02</t>
+  </si>
+  <si>
+    <t>https://lrpv2atesting.solverminds.net/index</t>
+  </si>
+  <si>
+    <t>TC_Booking_SC023_SC04</t>
+  </si>
+  <si>
+    <t>Proforma creation</t>
+  </si>
+  <si>
+    <t>Proforma_Service_Creation_PC05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Proforma_Service_Creation_PC07</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Proforma_Service_Creation_PC08</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Long Term Creation</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Long_Term_Creation_LT01</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Service_Creation</t>
+  </si>
+  <si>
     <t>Testcase1</t>
   </si>
   <si>
-    <t>https://lrpv2atesting.solverminds.net/main</t>
-  </si>
-  <si>
-    <t>Solverminds</t>
-  </si>
-  <si>
-    <t>Service_Creation</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC01</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC02</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC03</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC04</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC05</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -165,12 +289,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -232,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -284,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -478,32 +603,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,39 +651,369 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G11:G16">
       <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>Sno</t>
   </si>
@@ -190,6 +190,36 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>Sc06</t>
+  </si>
+  <si>
+    <t>Sc07</t>
+  </si>
+  <si>
+    <t>Proforma_Creation</t>
+  </si>
+  <si>
+    <t>Pc09</t>
+  </si>
+  <si>
+    <t>Long_Term_Creation</t>
+  </si>
+  <si>
+    <t>Lt04</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -603,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -996,12 +1026,104 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G11:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G11:G20">
       <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_framework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>Sno</t>
   </si>
@@ -87,16 +92,64 @@
     <t>TC_Proforma_Service_Creation_PC04</t>
   </si>
   <si>
-    <t>Booking</t>
-  </si>
-  <si>
-    <t>TC_Booking_SC01_SC02</t>
-  </si>
-  <si>
-    <t>https://lrpv2atesting.solverminds.net/index</t>
-  </si>
-  <si>
-    <t>TC_Booking_SC023_SC04</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Proformacreation03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC03</t>
+  </si>
+  <si>
+    <t>Service_Creation</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC01</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC02</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC03</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC04</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC05</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
   <si>
     <t>Proforma creation</t>
@@ -105,84 +158,33 @@
     <t>Proforma_Service_Creation_PC05</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>Proforma_Service_Creation_PC07</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>Proforma_Service_Creation_PC08</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Long Term Creation</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Long_Term_Creation_LT01</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Service_Creation</t>
-  </si>
-  <si>
-    <t>Testcase1</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>TC_Service_Creation_SC01</t>
-  </si>
-  <si>
-    <t>TC_Service_Creation_SC02</t>
-  </si>
-  <si>
-    <t>TC_Service_Creation_SC03</t>
-  </si>
-  <si>
-    <t>TC_Service_Creation_SC04</t>
-  </si>
-  <si>
-    <t>TC_Service_Creation_SC05</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>TC_Service_Creation_SC06</t>
+  </si>
+  <si>
+    <t>TC_Service_Creation_SC07</t>
+  </si>
+  <si>
+    <t>TC_Proforma_Service_Creation_PC09</t>
+  </si>
+  <si>
+    <t>TC_Long_Term_Creation_LT04</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -192,41 +194,17 @@
     <t>15</t>
   </si>
   <si>
-    <t>Sc06</t>
-  </si>
-  <si>
-    <t>Sc07</t>
-  </si>
-  <si>
-    <t>Proforma_Creation</t>
-  </si>
-  <si>
-    <t>Pc09</t>
-  </si>
-  <si>
-    <t>Long_Term_Creation</t>
-  </si>
-  <si>
-    <t>Lt04</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>solvermind_vss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,12 +227,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -305,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -321,11 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -439,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -633,32 +600,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="56.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,20 +648,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -704,20 +671,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -727,20 +694,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -750,392 +717,315 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G11:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17">
       <formula1>"https://lrpv2atesting.solverminds.net/main"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="G7" r:id="rId3"/>
-    <hyperlink ref="G8" r:id="rId4"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_framework\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -203,8 +198,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -406,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -600,32 +595,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
-    <col min="7" max="7" width="56.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,20 +643,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -671,20 +666,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -694,20 +689,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -717,20 +712,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -740,20 +735,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -763,20 +758,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -786,20 +781,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -809,20 +804,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -832,20 +827,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -855,20 +850,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -878,20 +873,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -901,20 +896,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -924,92 +919,92 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="6" t="s">
